--- a/Geometrical Optics/data.xlsx
+++ b/Geometrical Optics/data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/camilarestrepo_cmail_carleton_ca/Documents/23-24/W24/phys2202/Geometrical Optics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1443" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6288B8D8-9CB2-4DDE-9332-1228D1C736DC}"/>
+  <xr:revisionPtr revIDLastSave="1444" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FB8AB1-BACE-4C95-BFB4-D5D3757AE1A1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="827" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apparatus (Measurement)" sheetId="4" r:id="rId1"/>
     <sheet name="Object at Infinity" sheetId="1" r:id="rId2"/>
-    <sheet name="Lensmaker Equation" sheetId="3" r:id="rId3"/>
-    <sheet name="Thin Lens Equation" sheetId="5" r:id="rId4"/>
-    <sheet name="Magnification" sheetId="6" r:id="rId5"/>
-    <sheet name="Mirror Method" sheetId="7" r:id="rId6"/>
+    <sheet name="Mirror Method" sheetId="7" r:id="rId3"/>
+    <sheet name="Lensmaker Equation" sheetId="3" r:id="rId4"/>
+    <sheet name="Thin Lens Equation" sheetId="5" r:id="rId5"/>
+    <sheet name="Magnification" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3721,7 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
@@ -3935,11 +3935,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE21CBD6-D21C-412B-B644-7BECD1BE9759}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>343</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>366</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>395</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>494</v>
+      </c>
+      <c r="D8">
+        <f>C8-B8</f>
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0461AD-CCF8-490F-BEA4-C59996F02263}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4141,11 +4282,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B29988-44CF-4B8F-BFBD-0974D1B6F163}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4835,27 +4976,27 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE9DB3-2B61-4BF2-A04B-ABAB2D8D8BA5}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -5926,6 +6067,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="K40:O40"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A5:A8"/>
@@ -5934,154 +6080,8 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="K40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE21CBD6-D21C-412B-B644-7BECD1BE9759}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A4:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>343</v>
-      </c>
-      <c r="D4">
-        <f>C4-B4</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>170</v>
-      </c>
-      <c r="C5">
-        <v>366</v>
-      </c>
-      <c r="D5">
-        <f>C5-B5</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>395</v>
-      </c>
-      <c r="D6">
-        <f>C6-B6</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>250</v>
-      </c>
-      <c r="C7">
-        <v>445</v>
-      </c>
-      <c r="D7">
-        <f>C7-B7</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <v>494</v>
-      </c>
-      <c r="D8">
-        <f>C8-B8</f>
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Geometrical Optics/data.xlsx
+++ b/Geometrical Optics/data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/camilarestrepo_cmail_carleton_ca/Documents/23-24/W24/phys2202/Geometrical Optics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1444" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FB8AB1-BACE-4C95-BFB4-D5D3757AE1A1}"/>
+  <xr:revisionPtr revIDLastSave="1656" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511A2F71-E6CC-4F5C-9223-28DAFAC0FA7E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="827" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="827" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apparatus (Measurement)" sheetId="4" r:id="rId1"/>
     <sheet name="Object at Infinity" sheetId="1" r:id="rId2"/>
     <sheet name="Mirror Method" sheetId="7" r:id="rId3"/>
-    <sheet name="Lensmaker Equation" sheetId="3" r:id="rId4"/>
-    <sheet name="Thin Lens Equation" sheetId="5" r:id="rId5"/>
-    <sheet name="Magnification" sheetId="6" r:id="rId6"/>
+    <sheet name="Thin Lens Equation" sheetId="5" r:id="rId4"/>
+    <sheet name="Magnification" sheetId="6" r:id="rId5"/>
+    <sheet name="Lensmaker Equation" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -207,11 +207,31 @@
   <si>
     <t>h_o (mm)</t>
   </si>
+  <si>
+    <t>average f (mm)</t>
+  </si>
+  <si>
+    <t>s_o</t>
+  </si>
+  <si>
+    <t>sigma y</t>
+  </si>
+  <si>
+    <t>y(x)</t>
+  </si>
+  <si>
+    <t>yk - y(x) ^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +336,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +849,7 @@
             <c:numRef>
               <c:f>Magnification!$H$13:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>450.47</c:v>
@@ -845,7 +885,7 @@
             <c:numRef>
               <c:f>Magnification!$J$13:$J$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-1.3</c:v>
@@ -971,7 +1011,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1088,7 +1128,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1230,7 +1270,7 @@
             <c:numRef>
               <c:f>Magnification!$K$13:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.2199036561813216E-3</c:v>
@@ -1266,7 +1306,7 @@
             <c:numRef>
               <c:f>Magnification!$L$13:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.8779462975220878E-3</c:v>
@@ -1392,7 +1432,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1509,7 +1549,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3721,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="C6:D6"/>
+    <sheetView zoomScale="127" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3899,6 +3939,8 @@
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
@@ -3908,7 +3950,9 @@
       <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
@@ -3920,14 +3964,18 @@
         <f>STDEV(D8:D12)</f>
         <v>5</v>
       </c>
+      <c r="D16">
+        <f>AVERAGE(D8:D12)</f>
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3936,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE21CBD6-D21C-412B-B644-7BECD1BE9759}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="126" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4064,23 +4112,2405 @@
         <v>194</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="C12">
+        <f>STDEV(D4:D8)</f>
+        <v>1.1401754250991381</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D4:D8)</f>
+        <v>194.6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B29988-44CF-4B8F-BFBD-0974D1B6F163}">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>550</v>
+      </c>
+      <c r="D4">
+        <v>940</v>
+      </c>
+      <c r="E4">
+        <f>C4-B4</f>
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>390</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">1 / E4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="1">1/F4</f>
+        <v>2.5641025641025641E-3</v>
+      </c>
+      <c r="I4" s="15">
+        <f>E4*F4/(E4+F4)</f>
+        <v>197.46835443037975</v>
+      </c>
+      <c r="J4" s="15">
+        <f>(SQRT(1/2) / (E4+F4)) * SQRT(E4^2 + F4^2)</f>
+        <v>0.50004005607857416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>952</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E13" si="2">C5-B5</f>
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F13" si="3">D5-C5</f>
+        <v>452</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.2123893805309734E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I13" si="4">E5*F5/(E5+F5)</f>
+        <v>197.2568578553616</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" ref="J5:J13" si="5">(SQRT(1/2) / (E5+F5)) * SQRT(E5^2 + F5^2)</f>
+        <v>0.50402759660107832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <v>957.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>357.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.7972027972027972E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="4"/>
+        <v>199.22600619195046</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50326979612131206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>650</v>
+      </c>
+      <c r="D7">
+        <v>983</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>333</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3.003003003003003E-3</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="4"/>
+        <v>199.87995198079233</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50994909241392983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>520</v>
+      </c>
+      <c r="D8">
+        <v>944</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.3584905660377358E-3</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="4"/>
+        <v>197.58186397984886</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50115500854989847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>540</v>
+      </c>
+      <c r="D9">
+        <v>942</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.5641025641025641E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>2.4875621890547263E-3</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="4"/>
+        <v>197.95454545454547</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50005738880937123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>560</v>
+      </c>
+      <c r="D10">
+        <v>948</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.5773195876288659E-3</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="4"/>
+        <v>199.34837092731829</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50018997527866882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>580</v>
+      </c>
+      <c r="D11">
+        <v>950</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.3255813953488372E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="4"/>
+        <v>198.875</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50140427800328946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>480</v>
+      </c>
+      <c r="D12">
+        <v>966.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>486.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030303E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2.0554984583761563E-3</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="4"/>
+        <v>196.62584200857319</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50910167631787617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>460</v>
+      </c>
+      <c r="D13">
+        <v>998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.8587360594795538E-3</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="4"/>
+        <v>196.6745283018868</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="5"/>
+        <v>0.51775717301650126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L14" s="15">
+        <f>AVERAGE(I4:I13)</f>
+        <v>198.08913211306566</v>
+      </c>
+      <c r="M14">
+        <f>STDEV(I4:I13)</f>
+        <v>1.1642160437351874</v>
+      </c>
+      <c r="N14">
+        <f>SQRT(J4^2+J5^2+J6^2+J7^2+J8^2+J9^2+J10^2+J11^2+J12^2+J13^2)</f>
+        <v>1.5960825302805559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
+      <c r="B34">
+        <f>10*(SUM(C37:C46)) - SUM(A37:A46)^2</f>
+        <v>1.089549575920975E-5</v>
+      </c>
+      <c r="C34">
+        <f>(1/B34)*(10 * SUM(D37:D46) - SUM(A37:A46)*SUM(B37:B46))</f>
+        <v>-1.0777666702766504</v>
+      </c>
+      <c r="D34">
+        <f>(1/B34)*(SUM(C37:C46)*SUM(B37:B46)-SUM(A37:A46)*SUM(D37:D46))</f>
+        <v>5.2398275612326375E-3</v>
+      </c>
+      <c r="E34">
+        <f>1/D34</f>
+        <v>190.84597504669716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <f t="shared" ref="A37:A46" si="6">H4</f>
+        <v>2.5641025641025641E-3</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:B46" si="7">G4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C37">
+        <f>A37^2</f>
+        <v>6.574621959237344E-6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D46" si="8">A37*B37</f>
+        <v>6.4102564102564108E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>2.2123893805309734E-3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C46" si="9">A38^2</f>
+        <v>4.8946667710862243E-6</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>6.3211125158027815E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>2.7972027972027972E-3</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>7.8243434886791535E-6</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>6.2160062160062163E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>3.003003003003003E-3</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>2E-3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>9.0180270360450547E-6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>6.006006006006006E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>2.3584905660377358E-3</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="9"/>
+        <v>5.5624777500889991E-6</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>6.374298827129016E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>2.4875621890547263E-3</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025641E-3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="9"/>
+        <v>6.1879656444147422E-6</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>6.378364587319811E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>2.5773195876288659E-3</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>6.6425762567754273E-6</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>6.2861453356801612E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="7"/>
+        <v>2.3255813953488372E-3</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>7.3046018991964944E-6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>6.2853551225644251E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>2.0554984583761563E-3</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="7"/>
+        <v>3.0303030303030303E-3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>4.2250739123867551E-6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>6.2287832072004734E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>1.8587360594795538E-3</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="7"/>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>3.4548997388095795E-6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>5.9959227725146899E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE9DB3-2B61-4BF2-A04B-ABAB2D8D8BA5}">
+  <dimension ref="A1:V64"/>
+  <sheetViews>
+    <sheetView topLeftCell="C11" zoomScale="61" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.19921875" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5">
+        <v>152.47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8">
+        <v>19.5</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <f>D8-C8</f>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>SQRT(4*'Apparatus (Measurement)'!$B$3^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>221</v>
+      </c>
+      <c r="D13">
+        <v>516</v>
+      </c>
+      <c r="E13">
+        <v>685.5</v>
+      </c>
+      <c r="F13">
+        <v>877.5</v>
+      </c>
+      <c r="G13">
+        <v>-15</v>
+      </c>
+      <c r="H13" s="17">
+        <f>(D13-C13) +$B$3 +Magnification!$E$8/2</f>
+        <v>450.47</v>
+      </c>
+      <c r="I13" s="17">
+        <f>(F13-E13) +$B$3 +Magnification!$E$8/2</f>
+        <v>347.47</v>
+      </c>
+      <c r="J13" s="17">
+        <f>$B$8/G13</f>
+        <v>-1.3</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" ref="K13:K21" si="0">1 / H13</f>
+        <v>2.2199036561813216E-3</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" ref="L13:L21" si="1">1/I13</f>
+        <v>2.8779462975220878E-3</v>
+      </c>
+      <c r="M13" s="17">
+        <f>H13*I13/(H13+I13)</f>
+        <v>196.16112853096723</v>
+      </c>
+      <c r="N13" s="17">
+        <f>(SQRT(1/2)/G13) * SQRT(1 + (J13)^2)</f>
+        <v>-7.7316090031621362E-2</v>
+      </c>
+      <c r="O13" s="17">
+        <f>SQRT(5/4 + 1/2500)</f>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P13" s="17">
+        <f>O13/H13^2</f>
+        <v>5.5105219349470169E-6</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>O13/I13^2</f>
+        <v>9.2616817565025278E-6</v>
+      </c>
+      <c r="S13" s="25">
+        <v>2.8779462999999998E-3</v>
+      </c>
+      <c r="T13" s="25">
+        <v>2.2199036999999999E-3</v>
+      </c>
+      <c r="U13" s="25">
+        <v>1.1714499999999999E-5</v>
+      </c>
+      <c r="V13" s="25">
+        <v>6.9699E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>221</v>
+      </c>
+      <c r="D14">
+        <v>496.5</v>
+      </c>
+      <c r="E14">
+        <v>665</v>
+      </c>
+      <c r="F14">
+        <v>869</v>
+      </c>
+      <c r="G14">
+        <v>-16</v>
+      </c>
+      <c r="H14" s="17">
+        <f>(D14-C14) +$B$3 +Magnification!$E$8/2</f>
+        <v>430.97</v>
+      </c>
+      <c r="I14" s="17">
+        <f>(F14-E14) +$B$3 +Magnification!$E$8/2</f>
+        <v>359.47</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14:J21" si="2">$B$8/G14</f>
+        <v>-1.21875</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3203471239297397E-3</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7818733134893033E-3</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" ref="M14:M21" si="3">H14*I14/(H14+I14)</f>
+        <v>195.99309991903246</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" ref="N14:N21" si="4">(SQRT(1/2)/G14) * SQRT(1 + (J14)^2)</f>
+        <v>-6.9672105397410047E-2</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" ref="O14:O21" si="5">SQRT(5/4 + 1/2500)</f>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" ref="P14:P21" si="6">O14/H14^2</f>
+        <v>6.0204700869266086E-6</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" ref="Q14:Q21" si="7">O14/I14^2</f>
+        <v>8.6536470740241776E-6</v>
+      </c>
+      <c r="S14" s="25">
+        <v>2.7818732999999999E-3</v>
+      </c>
+      <c r="T14" s="25">
+        <v>2.3203471E-3</v>
+      </c>
+      <c r="U14" s="25">
+        <v>1.09454E-5</v>
+      </c>
+      <c r="V14" s="25">
+        <v>7.6148999999999997E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>221</v>
+      </c>
+      <c r="D15">
+        <v>477</v>
+      </c>
+      <c r="E15">
+        <v>645</v>
+      </c>
+      <c r="F15">
+        <v>868.5</v>
+      </c>
+      <c r="G15">
+        <v>-17.5</v>
+      </c>
+      <c r="H15" s="17">
+        <f>(D15-C15) +$B$3 +Magnification!$E$8/2</f>
+        <v>411.47</v>
+      </c>
+      <c r="I15" s="17">
+        <f>(F15-E15) +$B$3 +Magnification!$E$8/2</f>
+        <v>378.97</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.1142857142857143</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="0"/>
+        <v>2.430310836756021E-3</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="1"/>
+        <v>2.6387312979919255E-3</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="3"/>
+        <v>197.27592973533729</v>
+      </c>
+      <c r="N15" s="17">
+        <f t="shared" si="4"/>
+        <v>-6.0496350411914805E-2</v>
+      </c>
+      <c r="O15" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="6"/>
+        <v>6.6046244712013276E-6</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="7"/>
+        <v>7.786007523501136E-6</v>
+      </c>
+      <c r="S15" s="25">
+        <v>2.6387313000000002E-3</v>
+      </c>
+      <c r="T15" s="25">
+        <v>2.4303108E-3</v>
+      </c>
+      <c r="U15" s="25">
+        <v>9.8479999999999996E-6</v>
+      </c>
+      <c r="V15" s="25">
+        <v>8.3537999999999995E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>221</v>
+      </c>
+      <c r="D16">
+        <v>456.5</v>
+      </c>
+      <c r="E16">
+        <v>624.5</v>
+      </c>
+      <c r="F16">
+        <v>861</v>
+      </c>
+      <c r="G16">
+        <v>-19</v>
+      </c>
+      <c r="H16" s="17">
+        <f>(D16-C16) +$B$3 +Magnification!$E$8/2</f>
+        <v>390.97</v>
+      </c>
+      <c r="I16" s="17">
+        <f>(F16-E16) +$B$3 +Magnification!$E$8/2</f>
+        <v>391.97</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.0263157894736843</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="0"/>
+        <v>2.5577410031460213E-3</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5512156542592543E-3</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="3"/>
+        <v>195.73468069072982</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" si="4"/>
+        <v>-5.332859642154697E-2</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="6"/>
+        <v>7.3153921834388804E-6</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="7"/>
+        <v>7.2781135110307306E-6</v>
+      </c>
+      <c r="S16" s="25">
+        <v>2.5512157000000001E-3</v>
+      </c>
+      <c r="T16" s="25">
+        <v>2.5577410000000001E-3</v>
+      </c>
+      <c r="U16" s="25">
+        <v>9.2056000000000004E-6</v>
+      </c>
+      <c r="V16" s="25">
+        <v>9.2528000000000006E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>221</v>
+      </c>
+      <c r="D17">
+        <v>437</v>
+      </c>
+      <c r="E17">
+        <v>645</v>
+      </c>
+      <c r="F17">
+        <v>867</v>
+      </c>
+      <c r="G17">
+        <v>-21</v>
+      </c>
+      <c r="H17" s="17">
+        <f>(D17-C17) +$B$3 +Magnification!$E$8/2</f>
+        <v>371.47</v>
+      </c>
+      <c r="I17" s="17">
+        <f>(F17-E17) +$B$3 +Magnification!$E$8/2</f>
+        <v>377.47</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="0"/>
+        <v>2.6920074299405065E-3</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="1"/>
+        <v>2.6492171563303043E-3</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="3"/>
+        <v>187.22298301599594</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="4"/>
+        <v>-4.594985063301462E-2</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="6"/>
+        <v>8.1035812503049185E-6</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="7"/>
+        <v>7.8480109487431465E-6</v>
+      </c>
+      <c r="S17" s="25">
+        <v>2.6492171999999998E-3</v>
+      </c>
+      <c r="T17" s="25">
+        <v>2.6920073999999999E-3</v>
+      </c>
+      <c r="U17" s="25">
+        <v>9.9264000000000004E-6</v>
+      </c>
+      <c r="V17" s="25">
+        <v>1.0249699999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>221</v>
+      </c>
+      <c r="D18">
+        <v>417</v>
+      </c>
+      <c r="E18">
+        <v>584.5</v>
+      </c>
+      <c r="F18">
+        <v>866</v>
+      </c>
+      <c r="G18">
+        <v>-25</v>
+      </c>
+      <c r="H18" s="17">
+        <f>(D18-C18) +$B$3 +Magnification!$E$8/2</f>
+        <v>351.47</v>
+      </c>
+      <c r="I18" s="17">
+        <f>(F18-E18) +$B$3 +Magnification!$E$8/2</f>
+        <v>436.97</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.78</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8451930463481946E-3</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="1"/>
+        <v>2.2884866237956837E-3</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="3"/>
+        <v>194.792052534118</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="4"/>
+        <v>-3.5870879554312576E-2</v>
+      </c>
+      <c r="O18" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="6"/>
+        <v>9.0520711675716873E-6</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="7"/>
+        <v>5.8562719921062435E-6</v>
+      </c>
+      <c r="S18" s="25">
+        <v>2.2884865999999999E-3</v>
+      </c>
+      <c r="T18" s="25">
+        <v>2.8451930000000002E-3</v>
+      </c>
+      <c r="U18" s="25">
+        <v>7.4072E-6</v>
+      </c>
+      <c r="V18" s="25">
+        <v>1.1449399999999999E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>221</v>
+      </c>
+      <c r="D19">
+        <v>396.5</v>
+      </c>
+      <c r="E19">
+        <v>565</v>
+      </c>
+      <c r="F19">
+        <v>887.5</v>
+      </c>
+      <c r="G19">
+        <v>-27.5</v>
+      </c>
+      <c r="H19" s="17">
+        <f>(D19-C19) +$B$3 +Magnification!$E$8/2</f>
+        <v>330.97</v>
+      </c>
+      <c r="I19" s="17">
+        <f>(F19-E19) +$B$3 +Magnification!$E$8/2</f>
+        <v>477.97</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.70909090909090911</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="0"/>
+        <v>3.0214218811372628E-3</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="1"/>
+        <v>2.092181517668473E-3</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="3"/>
+        <v>195.55681620392119</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="4"/>
+        <v>-3.1521315546605533E-2</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0208154221256143E-5</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="7"/>
+        <v>4.8946676114802146E-6</v>
+      </c>
+      <c r="S19" s="25">
+        <v>2.0921815E-3</v>
+      </c>
+      <c r="T19" s="25">
+        <v>3.0214219000000001E-3</v>
+      </c>
+      <c r="U19" s="25">
+        <v>6.1909000000000003E-6</v>
+      </c>
+      <c r="V19" s="25">
+        <v>1.29116E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>221</v>
+      </c>
+      <c r="D20">
+        <v>375.5</v>
+      </c>
+      <c r="E20">
+        <v>444.5</v>
+      </c>
+      <c r="F20">
+        <v>925.5</v>
+      </c>
+      <c r="G20">
+        <v>-33</v>
+      </c>
+      <c r="H20" s="17">
+        <f>(D20-C20) +$B$3 +Magnification!$E$8/2</f>
+        <v>309.97000000000003</v>
+      </c>
+      <c r="I20" s="17">
+        <f>(F20-E20) +$B$3 +Magnification!$E$8/2</f>
+        <v>636.47</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.59090909090909094</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="0"/>
+        <v>3.2261186566441909E-3</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="1"/>
+        <v>1.5711659622605935E-3</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="3"/>
+        <v>208.45125512446643</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="4"/>
+        <v>-2.4888858126160682E-2</v>
+      </c>
+      <c r="O20" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="6"/>
+        <v>1.1638182305890472E-5</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="7"/>
+        <v>2.7603783116326329E-6</v>
+      </c>
+      <c r="S20" s="25">
+        <v>1.5711659999999999E-3</v>
+      </c>
+      <c r="T20" s="25">
+        <v>3.2261186999999998E-3</v>
+      </c>
+      <c r="U20" s="25">
+        <v>3.4914000000000001E-6</v>
+      </c>
+      <c r="V20" s="25">
+        <v>1.4720400000000001E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>221</v>
+      </c>
+      <c r="D21">
+        <v>545</v>
+      </c>
+      <c r="E21">
+        <v>712</v>
+      </c>
+      <c r="F21">
+        <v>894</v>
+      </c>
+      <c r="G21">
+        <v>-14</v>
+      </c>
+      <c r="H21" s="17">
+        <f>(D21-C21) +$B$3 +Magnification!$E$8/2</f>
+        <v>479.47</v>
+      </c>
+      <c r="I21" s="17">
+        <f>(F21-E21) +$B$3 +Magnification!$E$8/2</f>
+        <v>337.47</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.3928571428571428</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0856362233299267E-3</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="1"/>
+        <v>2.9632263608617062E-3</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="3"/>
+        <v>198.0644121967342</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="4"/>
+        <v>-8.6603291820244677E-2</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1182128598795491</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="6"/>
+        <v>4.8640900284859102E-6</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="7"/>
+        <v>9.8187033616310687E-6</v>
+      </c>
+      <c r="S21" s="25">
+        <v>2.9632263999999999E-3</v>
+      </c>
+      <c r="T21" s="25">
+        <v>2.0856362000000002E-3</v>
+      </c>
+      <c r="U21" s="25">
+        <v>1.2418999999999999E-5</v>
+      </c>
+      <c r="V21" s="25">
+        <v>6.1523000000000004E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="20"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42">
+        <f>9*(SUM(D45:D53)) - SUM(B45:B53)^2</f>
+        <v>229375.99999999255</v>
+      </c>
+      <c r="C42">
+        <f>(1/B42)*(9* SUM(E45:E53) - SUM(B45:B53)*SUM(C45:C53))</f>
+        <v>-4.8782073714610675E-3</v>
+      </c>
+      <c r="D42">
+        <f>(1/B42)*(SUM(D45:D53)*SUM(C45:C53)-SUM(B45:B53)*SUM(E45:E53))</f>
+        <v>0.90508659018340243</v>
+      </c>
+      <c r="E42">
+        <f>-1/C42</f>
+        <v>204.99333543102145</v>
+      </c>
+      <c r="F42">
+        <f>SQRT(SUM(D56:D64)/(9-2))</f>
+        <v>2.542164903949818E-2</v>
+      </c>
+      <c r="G42">
+        <f>F42*SQRT(9/B42)</f>
+        <v>1.5923956625995745E-4</v>
+      </c>
+      <c r="H42" s="17">
+        <f>F42*SQRT(SUM(D45:D53)/B42)</f>
+        <v>6.2980956429664808E-2</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="17">
+        <f>8*(SUM(N45:N52)) - SUM(K45:K52)^2</f>
+        <v>1.2204937984024253E-5</v>
+      </c>
+      <c r="L42" s="17">
+        <f>(1/K42)*(8 * SUM(O45:O52) - SUM(K45:K52)*SUM(L45:L52))</f>
+        <v>-0.84849863040062989</v>
+      </c>
+      <c r="N42" s="17">
+        <f>(1/K42)*(SUM(N45:N52)*SUM(L45:L52)-SUM(K45:K52)*SUM(O45:O52))</f>
+        <v>4.6846376363384864E-3</v>
+      </c>
+      <c r="O42" s="17">
+        <f>1/N42</f>
+        <v>213.46368227993835</v>
+      </c>
+      <c r="P42">
+        <f>SQRT(SUM(M55:M63)/(8-2))</f>
+        <v>1.9145905959360985E-3</v>
+      </c>
+      <c r="Q42">
+        <f>P42*SQRT(8/K42)</f>
+        <v>1.5500764794193944</v>
+      </c>
+      <c r="R42" s="17">
+        <f>P42*SQRT(SUM(N45:N53)/K42)</f>
+        <v>3.8889881148040568E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <f t="shared" ref="B45:B53" si="8">H13</f>
+        <v>450.47</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C53" si="9">J13</f>
+        <v>-1.3</v>
+      </c>
+      <c r="D45">
+        <f>B45^2</f>
+        <v>202923.22090000001</v>
+      </c>
+      <c r="E45">
+        <f>B45*C45</f>
+        <v>-585.6110000000001</v>
+      </c>
+      <c r="K45" s="17">
+        <f t="shared" ref="K45:K49" si="10">L13</f>
+        <v>2.8779462975220878E-3</v>
+      </c>
+      <c r="L45" s="17">
+        <f t="shared" ref="L45:L49" si="11">K13</f>
+        <v>2.2199036561813216E-3</v>
+      </c>
+      <c r="N45" s="17">
+        <f>K45^2</f>
+        <v>8.2825748914210937E-6</v>
+      </c>
+      <c r="O45" s="17">
+        <f>K45*L45</f>
+        <v>6.3887635081627802E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <f t="shared" si="8"/>
+        <v>430.97</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>-1.21875</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D53" si="12">B46^2</f>
+        <v>185735.14090000003</v>
+      </c>
+      <c r="E46">
+        <f>B46*C46</f>
+        <v>-525.24468750000005</v>
+      </c>
+      <c r="H46" s="17">
+        <f>G42/C42^2</f>
+        <v>6.6916076612874553</v>
+      </c>
+      <c r="K46" s="17">
+        <f t="shared" si="10"/>
+        <v>2.7818733134893033E-3</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="11"/>
+        <v>2.3203471239297397E-3</v>
+      </c>
+      <c r="N46" s="17">
+        <f t="shared" ref="N46:N49" si="13">K46^2</f>
+        <v>7.7388191323039559E-6</v>
+      </c>
+      <c r="O46" s="17">
+        <f>K46*L46</f>
+        <v>6.4549117420918E-6</v>
+      </c>
+      <c r="R46" s="17">
+        <f>R42/N42^2</f>
+        <v>177.2085244949364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <f t="shared" si="8"/>
+        <v>411.47</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>-1.1142857142857143</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="12"/>
+        <v>169307.56090000001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E53" si="14">B47*C47</f>
+        <v>-458.49514285714292</v>
+      </c>
+      <c r="K47" s="17">
+        <f t="shared" si="10"/>
+        <v>2.6387312979919255E-3</v>
+      </c>
+      <c r="L47" s="17">
+        <f t="shared" si="11"/>
+        <v>2.430310836756021E-3</v>
+      </c>
+      <c r="N47" s="17">
+        <f t="shared" si="13"/>
+        <v>6.9629028630021521E-6</v>
+      </c>
+      <c r="O47" s="17">
+        <f t="shared" ref="O47:O49" si="15">K47*L47</f>
+        <v>6.4129372687970581E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <f t="shared" si="8"/>
+        <v>390.97</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>-1.0263157894736843</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>152857.54090000002</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="14"/>
+        <v>-401.25868421052638</v>
+      </c>
+      <c r="K48" s="17">
+        <f t="shared" si="10"/>
+        <v>2.5512156542592543E-3</v>
+      </c>
+      <c r="L48" s="17">
+        <f t="shared" si="11"/>
+        <v>2.5577410031460213E-3</v>
+      </c>
+      <c r="N48" s="17">
+        <f t="shared" si="13"/>
+        <v>6.508701314537475E-6</v>
+      </c>
+      <c r="O48" s="17">
+        <f t="shared" si="15"/>
+        <v>6.5253488867668982E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <f t="shared" si="8"/>
+        <v>371.47</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>137989.96090000003</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>-344.93642857142862</v>
+      </c>
+      <c r="K49" s="17">
+        <f>L18</f>
+        <v>2.2884866237956837E-3</v>
+      </c>
+      <c r="L49" s="17">
+        <f>K18</f>
+        <v>2.8451930463481946E-3</v>
+      </c>
+      <c r="N49" s="17">
+        <f>K49^2</f>
+        <v>5.2371710272917669E-6</v>
+      </c>
+      <c r="O49" s="17">
+        <f>K49*L49</f>
+        <v>6.5111862286843357E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <f t="shared" si="8"/>
+        <v>351.47</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>-0.78</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>123531.16090000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="14"/>
+        <v>-274.14660000000003</v>
+      </c>
+      <c r="K50" s="17">
+        <f>L19</f>
+        <v>2.092181517668473E-3</v>
+      </c>
+      <c r="L50" s="17">
+        <f>K19</f>
+        <v>3.0214218811372628E-3</v>
+      </c>
+      <c r="N50" s="17">
+        <f>K50^2</f>
+        <v>4.3772235028735554E-6</v>
+      </c>
+      <c r="O50" s="17">
+        <f>K50*L50</f>
+        <v>6.3213630167944913E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <f t="shared" si="8"/>
+        <v>330.97</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>-0.70909090909090911</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>109541.14090000001</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="14"/>
+        <v>-234.68781818181822</v>
+      </c>
+      <c r="K51" s="17">
+        <f>L20</f>
+        <v>1.5711659622605935E-3</v>
+      </c>
+      <c r="L51" s="17">
+        <f>K20</f>
+        <v>3.2261186566441909E-3</v>
+      </c>
+      <c r="N51" s="17">
+        <f>K51^2</f>
+        <v>2.4685624809662569E-6</v>
+      </c>
+      <c r="O51" s="17">
+        <f>K51*L51</f>
+        <v>5.0687678235332237E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <f t="shared" si="8"/>
+        <v>309.97000000000003</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>-0.59090909090909094</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="12"/>
+        <v>96081.400900000022</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="14"/>
+        <v>-183.16409090909093</v>
+      </c>
+      <c r="K52" s="17">
+        <f>L21</f>
+        <v>2.9632263608617062E-3</v>
+      </c>
+      <c r="L52" s="17">
+        <f>K21</f>
+        <v>2.0856362233299267E-3</v>
+      </c>
+      <c r="N52" s="17">
+        <f>K52^2</f>
+        <v>8.7807104657057104E-6</v>
+      </c>
+      <c r="O52" s="17">
+        <f>K52*L52</f>
+        <v>6.1802122361392917E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <f t="shared" si="8"/>
+        <v>479.47</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>-1.3928571428571428</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="12"/>
+        <v>229891.48090000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="14"/>
+        <v>-667.83321428571435</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L54" t="s">
+        <v>58</v>
+      </c>
+      <c r="M54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55">
+        <f>$L$42*K45+$N$42</f>
+        <v>2.2427041445244314E-3</v>
+      </c>
+      <c r="M55" s="26">
+        <f>(L45-L55)^2</f>
+        <v>5.1986226868428484E-10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <f>$C$42*B45+$D$42</f>
+        <v>-1.2923994844386648</v>
+      </c>
+      <c r="D56">
+        <f>(C45-C56)^2</f>
+        <v>5.7767836798098991E-5</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ref="L56:L63" si="16">$L$42*K46+$N$42</f>
+        <v>2.3242219398947506E-3</v>
+      </c>
+      <c r="M56" s="26">
+        <f t="shared" ref="M56:M63" si="17">(L46-L56)^2</f>
+        <v>1.5014198762703362E-11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C57">
+        <f t="shared" ref="C57:C64" si="18">$C$42*B46+$D$42</f>
+        <v>-1.1972744406951739</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D64" si="19">(C46-C57)^2</f>
+        <v>4.6119964745510469E-4</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="16"/>
+        <v>2.4456777439970613E-3</v>
+      </c>
+      <c r="M57" s="26">
+        <f t="shared" si="17"/>
+        <v>2.3614183815473588E-10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C58">
+        <f t="shared" si="18"/>
+        <v>-1.1021493969516833</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="19"/>
+        <v>1.4729019843230076E-4</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="16"/>
+        <v>2.5199346478428624E-3</v>
+      </c>
+      <c r="M58" s="26">
+        <f t="shared" si="17"/>
+        <v>1.4293205013086907E-9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <f t="shared" si="18"/>
+        <v>-1.0021461458367313</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="19"/>
+        <v>5.8417167353730034E-4</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="16"/>
+        <v>2.7428598703576872E-3</v>
+      </c>
+      <c r="M59" s="26">
+        <f t="shared" si="17"/>
+        <v>1.047207890830415E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C60">
+        <f t="shared" si="18"/>
+        <v>-0.90702110209324038</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="19"/>
+        <v>4.6441657131650029E-4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="16"/>
+        <v>2.9094244840472761E-3</v>
+      </c>
+      <c r="M60" s="26">
+        <f t="shared" si="17"/>
+        <v>1.2543416954932167E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <f t="shared" si="18"/>
+        <v>-0.80945695466401912</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="19"/>
+        <v>8.6771217807807646E-4</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="16"/>
+        <v>3.351505469228285E-3</v>
+      </c>
+      <c r="M61" s="26">
+        <f t="shared" si="17"/>
+        <v>1.5721852769998738E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <f t="shared" si="18"/>
+        <v>-0.70945370354906712</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="19"/>
+        <v>1.316198188701649E-7</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="16"/>
+        <v>2.170344127580286E-3</v>
+      </c>
+      <c r="M62" s="26">
+        <f t="shared" si="17"/>
+        <v>7.1754290424880437E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <f t="shared" si="18"/>
+        <v>-0.6070113487483848</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="19"/>
+        <v>2.5928270752310076E-4</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="16"/>
+        <v>4.6846376363384864E-3</v>
+      </c>
+      <c r="M63" s="26">
+        <f t="shared" si="17"/>
+        <v>2.1945829783799039E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <f t="shared" si="18"/>
+        <v>-1.4338674982110358</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="19"/>
+        <v>1.6818492462525776E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="K40:O40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0461AD-CCF8-490F-BEA4-C59996F02263}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4184,14 +6614,14 @@
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -4216,8 +6646,20 @@
         <v>-180.22627659574468</v>
       </c>
       <c r="F13">
+        <f>SQRT((0.025*(B13^2 - $B$8^2)/(2*B13^2))^2 + ($B$8*SQRT(1/2)/B13)^2)</f>
+        <v>12.381514803079192</v>
+      </c>
+      <c r="G13">
+        <f>SQRT((0.025*(C13^2 - $B$8^2)/(2*C13^2))^2 + ($B$8*SQRT(1/2)/C13)^2)</f>
+        <v>11.720585872080543</v>
+      </c>
+      <c r="H13">
         <f>1 / (($B$3-1)*((1/D13) - (1/E13)))</f>
         <v>179.39083805411684</v>
+      </c>
+      <c r="I13">
+        <f>SQRT(E13^2*F13^2 + D13^2*G13^2)/ABS((($B$3-1)*(E13-D13)))</f>
+        <v>16.53430046139782</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4239,8 +6681,20 @@
         <v>-195.36153846153846</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F15" si="0">1 / (($B$3-1)*((1/D14) - (1/E14)))</f>
+        <f t="shared" ref="F14:F15" si="0">SQRT((0.025*(B14^2 - $B$8^2)/(2*B14^2))^2 + ($B$8*SQRT(1/2)/B14)^2)</f>
+        <v>13.067729530100216</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="1">SQRT((0.025*(C14^2 - $B$8^2)/(2*C14^2))^2 + ($B$8*SQRT(1/2)/C14)^2)</f>
+        <v>12.794748031347581</v>
+      </c>
+      <c r="H14">
+        <f>1 / (($B$3-1)*((1/D14) - (1/E14)))</f>
         <v>191.49341092998614</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I15" si="2">SQRT(E14^2*F14^2 + D14^2*G14^2)/ABS((($B$3-1)*(E14-D14)))</f>
+        <v>17.752397006704307</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -4263,7 +6717,37 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
+        <v>13.012179787764495</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12.957113081956331</v>
+      </c>
+      <c r="H15">
+        <f>1 / (($B$3-1)*((1/D15) - (1/E15)))</f>
         <v>192.23494071202001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>17.827451351258119</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f>AVERAGE(H13:H15)</f>
+        <v>187.70639656537435</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f>STDEV(H13:H15)</f>
+        <v>7.2110229246633892</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>(1/3)*SQRT(I13^2+I14^2+I15^2)</f>
+        <v>10.035208644860239</v>
       </c>
     </row>
   </sheetData>
@@ -4280,1808 +6764,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B29988-44CF-4B8F-BFBD-0974D1B6F163}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>550</v>
-      </c>
-      <c r="D4">
-        <v>940</v>
-      </c>
-      <c r="E4">
-        <f>C4-B4</f>
-        <v>400</v>
-      </c>
-      <c r="F4">
-        <f>D4-C4</f>
-        <v>390</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G13" si="0">1 / E4</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H13" si="1">1/F4</f>
-        <v>2.5641025641025641E-3</v>
-      </c>
-      <c r="I4">
-        <f>E4*F4/(E4+F4)</f>
-        <v>197.46835443037975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5">
-        <v>952</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E13" si="2">C5-B5</f>
-        <v>350</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F13" si="3">D5-C5</f>
-        <v>452</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>2.2123893805309734E-3</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I13" si="4">E5*F5/(E5+F5)</f>
-        <v>197.2568578553616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>600</v>
-      </c>
-      <c r="D6">
-        <v>957.5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>357.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>2.7972027972027972E-3</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>199.22600619195046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>650</v>
-      </c>
-      <c r="D7">
-        <v>983</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>333</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>3.003003003003003E-3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>199.87995198079233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8">
-        <v>520</v>
-      </c>
-      <c r="D8">
-        <v>944</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>370</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>424</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2.7027027027027029E-3</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>2.3584905660377358E-3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>197.58186397984886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <v>540</v>
-      </c>
-      <c r="D9">
-        <v>942</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>402</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>2.5641025641025641E-3</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>2.4875621890547263E-3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>197.95454545454547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>150</v>
-      </c>
-      <c r="C10">
-        <v>560</v>
-      </c>
-      <c r="D10">
-        <v>948</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>388</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>2.4390243902439024E-3</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>2.5773195876288659E-3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>199.34837092731829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>150</v>
-      </c>
-      <c r="C11">
-        <v>580</v>
-      </c>
-      <c r="D11">
-        <v>950</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>430</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>370</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2.3255813953488372E-3</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>2.7027027027027029E-3</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>198.875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>480</v>
-      </c>
-      <c r="D12">
-        <v>966.5</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>486.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>3.0303030303030303E-3</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>2.0554984583761563E-3</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>196.62584200857319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>460</v>
-      </c>
-      <c r="D13">
-        <v>998</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>538</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>3.2258064516129032E-3</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1.8587360594795538E-3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>196.6745283018868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
-      <c r="B34">
-        <f>10*(SUM(C37:C46)) - SUM(A37:A46)^2</f>
-        <v>1.089549575920975E-5</v>
-      </c>
-      <c r="C34">
-        <f>(1/B34)*(10 * SUM(D37:D46) - SUM(A37:A46)*SUM(B37:B46))</f>
-        <v>-1.0777666702766504</v>
-      </c>
-      <c r="D34">
-        <f>(1/B34)*(SUM(C37:C46)*SUM(B37:B46)-SUM(A37:A46)*SUM(D37:D46))</f>
-        <v>5.2398275612326375E-3</v>
-      </c>
-      <c r="E34">
-        <f>1/D34</f>
-        <v>190.84597504669716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <f t="shared" ref="A37:A46" si="5">H4</f>
-        <v>2.5641025641025641E-3</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37:B46" si="6">G4</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C37">
-        <f>A37^2</f>
-        <v>6.574621959237344E-6</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D46" si="7">A37*B37</f>
-        <v>6.4102564102564108E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>2.2123893805309734E-3</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="6"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:C46" si="8">A38^2</f>
-        <v>4.8946667710862243E-6</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="7"/>
-        <v>6.3211125158027815E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <f t="shared" si="5"/>
-        <v>2.7972027972027972E-3</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="6"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="8"/>
-        <v>7.8243434886791535E-6</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="7"/>
-        <v>6.2160062160062163E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <f t="shared" si="5"/>
-        <v>3.003003003003003E-3</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="6"/>
-        <v>2E-3</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="8"/>
-        <v>9.0180270360450547E-6</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="7"/>
-        <v>6.006006006006006E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <f t="shared" si="5"/>
-        <v>2.3584905660377358E-3</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="6"/>
-        <v>2.7027027027027029E-3</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="8"/>
-        <v>5.5624777500889991E-6</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="7"/>
-        <v>6.374298827129016E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <f t="shared" si="5"/>
-        <v>2.4875621890547263E-3</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="6"/>
-        <v>2.5641025641025641E-3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="8"/>
-        <v>6.1879656444147422E-6</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="7"/>
-        <v>6.378364587319811E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <f t="shared" si="5"/>
-        <v>2.5773195876288659E-3</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="6"/>
-        <v>2.4390243902439024E-3</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="8"/>
-        <v>6.6425762567754273E-6</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="7"/>
-        <v>6.2861453356801612E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <f t="shared" si="5"/>
-        <v>2.7027027027027029E-3</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="6"/>
-        <v>2.3255813953488372E-3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="8"/>
-        <v>7.3046018991964944E-6</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="7"/>
-        <v>6.2853551225644251E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <f t="shared" si="5"/>
-        <v>2.0554984583761563E-3</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="6"/>
-        <v>3.0303030303030303E-3</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="8"/>
-        <v>4.2250739123867551E-6</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="7"/>
-        <v>6.2287832072004734E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <f t="shared" si="5"/>
-        <v>1.8587360594795538E-3</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="6"/>
-        <v>3.2258064516129032E-3</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="8"/>
-        <v>3.4548997388095795E-6</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="7"/>
-        <v>5.9959227725146899E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE9DB3-2B61-4BF2-A04B-ABAB2D8D8BA5}">
-  <dimension ref="A1:R53"/>
-  <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5">
-        <v>152.47</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8">
-        <v>19.5</v>
-      </c>
-      <c r="C8">
-        <v>101</v>
-      </c>
-      <c r="D8">
-        <v>107</v>
-      </c>
-      <c r="E8">
-        <f>D8-C8</f>
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <f>SQRT('Apparatus (Measurement)'!$B$3^2+'Apparatus (Measurement)'!$B$3^2)</f>
-        <v>0.70710678118654757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>221</v>
-      </c>
-      <c r="D13">
-        <v>516</v>
-      </c>
-      <c r="E13">
-        <v>685.5</v>
-      </c>
-      <c r="F13">
-        <v>877.5</v>
-      </c>
-      <c r="G13">
-        <v>-15</v>
-      </c>
-      <c r="H13">
-        <f>(D13-C13) +$B$3 +Magnification!$E$8/2</f>
-        <v>450.47</v>
-      </c>
-      <c r="I13">
-        <f>(F13-E13) +$B$3 +Magnification!$E$8/2</f>
-        <v>347.47</v>
-      </c>
-      <c r="J13">
-        <f>$B$8/G13</f>
-        <v>-1.3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K21" si="0">1 / H13</f>
-        <v>2.2199036561813216E-3</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L21" si="1">1/I13</f>
-        <v>2.8779462975220878E-3</v>
-      </c>
-      <c r="M13">
-        <f>H13*I13/(H13+I13)</f>
-        <v>196.16112853096723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>150</v>
-      </c>
-      <c r="C14">
-        <v>221</v>
-      </c>
-      <c r="D14">
-        <v>496.5</v>
-      </c>
-      <c r="E14">
-        <v>665</v>
-      </c>
-      <c r="F14">
-        <v>869</v>
-      </c>
-      <c r="G14">
-        <v>-16</v>
-      </c>
-      <c r="H14">
-        <f>(D14-C14) +$B$3 +Magnification!$E$8/2</f>
-        <v>430.97</v>
-      </c>
-      <c r="I14">
-        <f>(F14-E14) +$B$3 +Magnification!$E$8/2</f>
-        <v>359.47</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J21" si="2">$B$8/G14</f>
-        <v>-1.21875</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>2.3203471239297397E-3</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>2.7818733134893033E-3</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M21" si="3">H14*I14/(H14+I14)</f>
-        <v>195.99309991903246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>150</v>
-      </c>
-      <c r="C15">
-        <v>221</v>
-      </c>
-      <c r="D15">
-        <v>477</v>
-      </c>
-      <c r="E15">
-        <v>645</v>
-      </c>
-      <c r="F15">
-        <v>868.5</v>
-      </c>
-      <c r="G15">
-        <v>-17.5</v>
-      </c>
-      <c r="H15">
-        <f>(D15-C15) +$B$3 +Magnification!$E$8/2</f>
-        <v>411.47</v>
-      </c>
-      <c r="I15">
-        <f>(F15-E15) +$B$3 +Magnification!$E$8/2</f>
-        <v>378.97</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>-1.1142857142857143</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>2.430310836756021E-3</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>2.6387312979919255E-3</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>197.27592973533729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>150</v>
-      </c>
-      <c r="C16">
-        <v>221</v>
-      </c>
-      <c r="D16">
-        <v>456.5</v>
-      </c>
-      <c r="E16">
-        <v>624.5</v>
-      </c>
-      <c r="F16">
-        <v>861</v>
-      </c>
-      <c r="G16">
-        <v>-19</v>
-      </c>
-      <c r="H16">
-        <f>(D16-C16) +$B$3 +Magnification!$E$8/2</f>
-        <v>390.97</v>
-      </c>
-      <c r="I16">
-        <f>(F16-E16) +$B$3 +Magnification!$E$8/2</f>
-        <v>391.97</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-1.0263157894736843</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>2.5577410031460213E-3</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>2.5512156542592543E-3</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>195.73468069072982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>150</v>
-      </c>
-      <c r="C17">
-        <v>221</v>
-      </c>
-      <c r="D17">
-        <v>437</v>
-      </c>
-      <c r="E17">
-        <v>645</v>
-      </c>
-      <c r="F17">
-        <v>867</v>
-      </c>
-      <c r="G17">
-        <v>-21</v>
-      </c>
-      <c r="H17">
-        <f>(D17-C17) +$B$3 +Magnification!$E$8/2</f>
-        <v>371.47</v>
-      </c>
-      <c r="I17">
-        <f>(F17-E17) +$B$3 +Magnification!$E$8/2</f>
-        <v>377.47</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>-0.9285714285714286</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>2.6920074299405065E-3</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>2.6492171563303043E-3</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>187.22298301599594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-      <c r="C18">
-        <v>221</v>
-      </c>
-      <c r="D18">
-        <v>417</v>
-      </c>
-      <c r="E18">
-        <v>584.5</v>
-      </c>
-      <c r="F18">
-        <v>866</v>
-      </c>
-      <c r="G18">
-        <v>-25</v>
-      </c>
-      <c r="H18">
-        <f>(D18-C18) +$B$3 +Magnification!$E$8/2</f>
-        <v>351.47</v>
-      </c>
-      <c r="I18">
-        <f>(F18-E18) +$B$3 +Magnification!$E$8/2</f>
-        <v>436.97</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>-0.78</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>2.8451930463481946E-3</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>2.2884866237956837E-3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>194.792052534118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>150</v>
-      </c>
-      <c r="C19">
-        <v>221</v>
-      </c>
-      <c r="D19">
-        <v>396.5</v>
-      </c>
-      <c r="E19">
-        <v>565</v>
-      </c>
-      <c r="F19">
-        <v>887.5</v>
-      </c>
-      <c r="G19">
-        <v>-27.5</v>
-      </c>
-      <c r="H19">
-        <f>(D19-C19) +$B$3 +Magnification!$E$8/2</f>
-        <v>330.97</v>
-      </c>
-      <c r="I19">
-        <f>(F19-E19) +$B$3 +Magnification!$E$8/2</f>
-        <v>477.97</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>-0.70909090909090911</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>3.0214218811372628E-3</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>2.092181517668473E-3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>195.55681620392119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>150</v>
-      </c>
-      <c r="C20">
-        <v>221</v>
-      </c>
-      <c r="D20">
-        <v>375.5</v>
-      </c>
-      <c r="E20">
-        <v>444.5</v>
-      </c>
-      <c r="F20">
-        <v>925.5</v>
-      </c>
-      <c r="G20">
-        <v>-33</v>
-      </c>
-      <c r="H20">
-        <f>(D20-C20) +$B$3 +Magnification!$E$8/2</f>
-        <v>309.97000000000003</v>
-      </c>
-      <c r="I20">
-        <f>(F20-E20) +$B$3 +Magnification!$E$8/2</f>
-        <v>636.47</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>-0.59090909090909094</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>3.2261186566441909E-3</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>1.5711659622605935E-3</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>208.45125512446643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>150</v>
-      </c>
-      <c r="C21">
-        <v>221</v>
-      </c>
-      <c r="D21">
-        <v>545</v>
-      </c>
-      <c r="E21">
-        <v>712</v>
-      </c>
-      <c r="F21">
-        <v>894</v>
-      </c>
-      <c r="G21">
-        <v>-14</v>
-      </c>
-      <c r="H21">
-        <f>(D21-C21) +$B$3 +Magnification!$E$8/2</f>
-        <v>479.47</v>
-      </c>
-      <c r="I21">
-        <f>(F21-E21) +$B$3 +Magnification!$E$8/2</f>
-        <v>337.47</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>-1.3928571428571428</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>2.0856362233299267E-3</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>2.9632263608617062E-3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>198.0644121967342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42">
-        <f>9*(SUM(D45:D53)) - SUM(B45:B53)^2</f>
-        <v>229375.99999999255</v>
-      </c>
-      <c r="C42">
-        <f>(1/B42)*(9* SUM(E45:E53) - SUM(B45:B53)*SUM(C45:C53))</f>
-        <v>-4.8782073714610675E-3</v>
-      </c>
-      <c r="D42">
-        <f>(1/B42)*(SUM(D45:D53)*SUM(C45:C53)-SUM(B45:B53)*SUM(E45:E53))</f>
-        <v>0.90508659018340243</v>
-      </c>
-      <c r="E42">
-        <f>-1/C42</f>
-        <v>204.99333543102145</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42">
-        <f>9*(SUM(N45:N53)) - SUM(K45:K53)^2</f>
-        <v>1.3985778285127747E-5</v>
-      </c>
-      <c r="L42">
-        <f>(1/K42)*(9 * SUM(O45:O53) - SUM(K45:K53)*SUM(L45:L53))</f>
-        <v>-0.82242240131356403</v>
-      </c>
-      <c r="N42">
-        <f>(1/K42)*(SUM(N45:N53)*SUM(L45:L53)-SUM(K45:K53)*SUM(O45:O53))</f>
-        <v>4.6480546553904576E-3</v>
-      </c>
-      <c r="O42">
-        <f>1/N42</f>
-        <v>215.14376962849965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B45">
-        <f t="shared" ref="B45:B53" si="4">H13</f>
-        <v>450.47</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:C53" si="5">J13</f>
-        <v>-1.3</v>
-      </c>
-      <c r="D45">
-        <f>B45^2</f>
-        <v>202923.22090000001</v>
-      </c>
-      <c r="E45">
-        <f>B45*C45</f>
-        <v>-585.6110000000001</v>
-      </c>
-      <c r="K45">
-        <f t="shared" ref="K45:K53" si="6">L13</f>
-        <v>2.8779462975220878E-3</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ref="L45:L53" si="7">K13</f>
-        <v>2.2199036561813216E-3</v>
-      </c>
-      <c r="N45">
-        <f>K45^2</f>
-        <v>8.2825748914210937E-6</v>
-      </c>
-      <c r="O45">
-        <f>K45*L45</f>
-        <v>6.3887635081627802E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B46">
-        <f t="shared" si="4"/>
-        <v>430.97</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="5"/>
-        <v>-1.21875</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ref="D46:D53" si="8">B46^2</f>
-        <v>185735.14090000003</v>
-      </c>
-      <c r="E46">
-        <f>B46*C46</f>
-        <v>-525.24468750000005</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="6"/>
-        <v>2.7818733134893033E-3</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="7"/>
-        <v>2.3203471239297397E-3</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ref="N46:N53" si="9">K46^2</f>
-        <v>7.7388191323039559E-6</v>
-      </c>
-      <c r="O46">
-        <f>K46*L46</f>
-        <v>6.4549117420918E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <f t="shared" si="4"/>
-        <v>411.47</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="5"/>
-        <v>-1.1142857142857143</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="8"/>
-        <v>169307.56090000001</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ref="E47:E53" si="10">B47*C47</f>
-        <v>-458.49514285714292</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="6"/>
-        <v>2.6387312979919255E-3</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="7"/>
-        <v>2.430310836756021E-3</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="9"/>
-        <v>6.9629028630021521E-6</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ref="O47:O53" si="11">K47*L47</f>
-        <v>6.4129372687970581E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <f t="shared" si="4"/>
-        <v>390.97</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="5"/>
-        <v>-1.0263157894736843</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="8"/>
-        <v>152857.54090000002</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="10"/>
-        <v>-401.25868421052638</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="6"/>
-        <v>2.5512156542592543E-3</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="7"/>
-        <v>2.5577410031460213E-3</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="9"/>
-        <v>6.508701314537475E-6</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="11"/>
-        <v>6.5253488867668982E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B49">
-        <f t="shared" si="4"/>
-        <v>371.47</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="5"/>
-        <v>-0.9285714285714286</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="8"/>
-        <v>137989.96090000003</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="10"/>
-        <v>-344.93642857142862</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="6"/>
-        <v>2.6492171563303043E-3</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="7"/>
-        <v>2.6920074299405065E-3</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="9"/>
-        <v>7.018351541394824E-6</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="11"/>
-        <v>7.1317122683670396E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B50">
-        <f t="shared" si="4"/>
-        <v>351.47</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="5"/>
-        <v>-0.78</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="8"/>
-        <v>123531.16090000002</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="10"/>
-        <v>-274.14660000000003</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="6"/>
-        <v>2.2884866237956837E-3</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="7"/>
-        <v>2.8451930463481946E-3</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="9"/>
-        <v>5.2371710272917669E-6</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="11"/>
-        <v>6.5111862286843357E-6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B51">
-        <f t="shared" si="4"/>
-        <v>330.97</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="5"/>
-        <v>-0.70909090909090911</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="8"/>
-        <v>109541.14090000001</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="10"/>
-        <v>-234.68781818181822</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="6"/>
-        <v>2.092181517668473E-3</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="7"/>
-        <v>3.0214218811372628E-3</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="9"/>
-        <v>4.3772235028735554E-6</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="11"/>
-        <v>6.3213630167944913E-6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B52">
-        <f t="shared" si="4"/>
-        <v>309.97000000000003</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="5"/>
-        <v>-0.59090909090909094</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="8"/>
-        <v>96081.400900000022</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="10"/>
-        <v>-183.16409090909093</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="6"/>
-        <v>1.5711659622605935E-3</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="7"/>
-        <v>3.2261186566441909E-3</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="9"/>
-        <v>2.4685624809662569E-6</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="11"/>
-        <v>5.0687678235332237E-6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B53">
-        <f t="shared" si="4"/>
-        <v>479.47</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="5"/>
-        <v>-1.3928571428571428</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="8"/>
-        <v>229891.48090000002</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="10"/>
-        <v>-667.83321428571435</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="6"/>
-        <v>2.9632263608617062E-3</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="7"/>
-        <v>2.0856362233299267E-3</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="9"/>
-        <v>8.7807104657057104E-6</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="11"/>
-        <v>6.1802122361392917E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Geometrical Optics/data.xlsx
+++ b/Geometrical Optics/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/camilarestrepo_cmail_carleton_ca/Documents/23-24/W24/phys2202/Geometrical Optics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1656" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511A2F71-E6CC-4F5C-9223-28DAFAC0FA7E}"/>
+  <xr:revisionPtr revIDLastSave="1663" documentId="11_F25DC773A252ABDACC10487E79187C425BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFA5B4B-4876-4A1D-9F36-F71E0A65F8F8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="827" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="827" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apparatus (Measurement)" sheetId="4" r:id="rId1"/>
@@ -228,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,13 +321,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -336,26 +348,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,8 +1242,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Magnification!$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0029632264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1267,6 +1276,42 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
+            <c:numRef>
+              <c:f>Magnification!$L$13:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.8779462975220878E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7818733134893033E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6387312979919255E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5512156542592543E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6492171563303043E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2884866237956837E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.092181517668473E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5711659622605935E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9632263608617062E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Magnification!$K$13:$K$21</c:f>
               <c:numCache>
@@ -1301,47 +1346,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Magnification!$L$13:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.8779462975220878E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7818733134893033E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6387312979919255E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5512156542592543E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6492171563303043E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2884866237956837E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.092181517668473E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5711659622605935E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9632263608617062E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C574-482E-917B-FC25B0844A50}"/>
+              <c16:uniqueId val="{00000015-D445-4DF2-B325-343A33F09B10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3774,38 +3783,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="11"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3827,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3934,16 +3943,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
@@ -3955,7 +3964,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="19"/>
       <c r="B16">
         <f>'Apparatus (Measurement)'!B4</f>
         <v>0.5</v>
@@ -3997,24 +4006,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4023,7 +4032,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
@@ -4113,16 +4122,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
@@ -4134,7 +4143,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="19"/>
       <c r="C12">
         <f>STDEV(D4:D8)</f>
         <v>1.1401754250991381</v>
@@ -4174,45 +4183,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
@@ -4273,11 +4282,11 @@
         <f t="shared" ref="H4:H13" si="1">1/F4</f>
         <v>2.5641025641025641E-3</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <f>E4*F4/(E4+F4)</f>
         <v>197.46835443037975</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <f>(SQRT(1/2) / (E4+F4)) * SQRT(E4^2 + F4^2)</f>
         <v>0.50004005607857416</v>
       </c>
@@ -4311,11 +4320,11 @@
         <f t="shared" si="1"/>
         <v>2.2123893805309734E-3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I13" si="4">E5*F5/(E5+F5)</f>
         <v>197.2568578553616</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <f t="shared" ref="J5:J13" si="5">(SQRT(1/2) / (E5+F5)) * SQRT(E5^2 + F5^2)</f>
         <v>0.50402759660107832</v>
       </c>
@@ -4349,11 +4358,11 @@
         <f t="shared" si="1"/>
         <v>2.7972027972027972E-3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <f t="shared" si="4"/>
         <v>199.22600619195046</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <f t="shared" si="5"/>
         <v>0.50326979612131206</v>
       </c>
@@ -4387,11 +4396,11 @@
         <f t="shared" si="1"/>
         <v>3.003003003003003E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <f t="shared" si="4"/>
         <v>199.87995198079233</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="10">
         <f t="shared" si="5"/>
         <v>0.50994909241392983</v>
       </c>
@@ -4425,11 +4434,11 @@
         <f t="shared" si="1"/>
         <v>2.3584905660377358E-3</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="10">
         <f t="shared" si="4"/>
         <v>197.58186397984886</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <f t="shared" si="5"/>
         <v>0.50115500854989847</v>
       </c>
@@ -4463,11 +4472,11 @@
         <f t="shared" si="1"/>
         <v>2.4875621890547263E-3</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <f t="shared" si="4"/>
         <v>197.95454545454547</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="10">
         <f t="shared" si="5"/>
         <v>0.50005738880937123</v>
       </c>
@@ -4501,11 +4510,11 @@
         <f t="shared" si="1"/>
         <v>2.5773195876288659E-3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="10">
         <f t="shared" si="4"/>
         <v>199.34837092731829</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="10">
         <f t="shared" si="5"/>
         <v>0.50018997527866882</v>
       </c>
@@ -4539,11 +4548,11 @@
         <f t="shared" si="1"/>
         <v>2.7027027027027029E-3</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="10">
         <f t="shared" si="4"/>
         <v>198.875</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <f t="shared" si="5"/>
         <v>0.50140427800328946</v>
       </c>
@@ -4577,11 +4586,11 @@
         <f t="shared" si="1"/>
         <v>2.0554984583761563E-3</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <f t="shared" si="4"/>
         <v>196.62584200857319</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <f t="shared" si="5"/>
         <v>0.50910167631787617</v>
       </c>
@@ -4615,17 +4624,17 @@
         <f t="shared" si="1"/>
         <v>1.8587360594795538E-3</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <f t="shared" si="4"/>
         <v>196.6745283018868</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="10">
         <f t="shared" si="5"/>
         <v>0.51775717301650126</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="L14" s="15">
+      <c r="L14" s="10">
         <f>AVERAGE(I4:I13)</f>
         <v>198.08913211306566</v>
       </c>
@@ -4639,35 +4648,35 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
@@ -4691,7 +4700,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="19"/>
       <c r="B34">
         <f>10*(SUM(C37:C46)) - SUM(A37:A46)^2</f>
         <v>1.089549575920975E-5</v>
@@ -4905,16 +4914,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4926,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AE9DB3-2B61-4BF2-A04B-ABAB2D8D8BA5}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="61" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4937,27 +4946,27 @@
     <col min="4" max="4" width="20.1328125" customWidth="1"/>
     <col min="5" max="5" width="15.1328125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="8" max="9" width="14.265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="11.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.19921875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
@@ -4966,7 +4975,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5">
         <v>152.47</v>
       </c>
@@ -4975,26 +4984,26 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
@@ -5003,7 +5012,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>54</v>
       </c>
@@ -5021,7 +5030,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
+      <c r="A8" s="18"/>
       <c r="B8">
         <v>19.5</v>
       </c>
@@ -5044,51 +5053,51 @@
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
@@ -5110,46 +5119,46 @@
       <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5175,56 +5184,56 @@
       <c r="G13">
         <v>-15</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="11">
         <f>(D13-C13) +$B$3 +Magnification!$E$8/2</f>
         <v>450.47</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <f>(F13-E13) +$B$3 +Magnification!$E$8/2</f>
         <v>347.47</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <f>$B$8/G13</f>
         <v>-1.3</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="11">
         <f t="shared" ref="K13:K21" si="0">1 / H13</f>
         <v>2.2199036561813216E-3</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="11">
         <f t="shared" ref="L13:L21" si="1">1/I13</f>
         <v>2.8779462975220878E-3</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="11">
         <f>H13*I13/(H13+I13)</f>
         <v>196.16112853096723</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="11">
         <f>(SQRT(1/2)/G13) * SQRT(1 + (J13)^2)</f>
         <v>-7.7316090031621362E-2</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="11">
         <f>SQRT(5/4 + 1/2500)</f>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="11">
         <f>O13/H13^2</f>
         <v>5.5105219349470169E-6</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="11">
         <f>O13/I13^2</f>
         <v>9.2616817565025278E-6</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="16">
         <v>2.8779462999999998E-3</v>
       </c>
-      <c r="T13" s="25">
+      <c r="T13" s="16">
         <v>2.2199036999999999E-3</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="16">
         <v>1.1714499999999999E-5</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="16">
         <v>6.9699E-6</v>
       </c>
     </row>
@@ -5250,56 +5259,56 @@
       <c r="G14">
         <v>-16</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <f>(D14-C14) +$B$3 +Magnification!$E$8/2</f>
         <v>430.97</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <f>(F14-E14) +$B$3 +Magnification!$E$8/2</f>
         <v>359.47</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <f t="shared" ref="J14:J21" si="2">$B$8/G14</f>
         <v>-1.21875</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>2.3203471239297397E-3</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>2.7818733134893033E-3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="11">
         <f t="shared" ref="M14:M21" si="3">H14*I14/(H14+I14)</f>
         <v>195.99309991903246</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="11">
         <f t="shared" ref="N14:N21" si="4">(SQRT(1/2)/G14) * SQRT(1 + (J14)^2)</f>
         <v>-6.9672105397410047E-2</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="11">
         <f t="shared" ref="O14:O21" si="5">SQRT(5/4 + 1/2500)</f>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="11">
         <f t="shared" ref="P14:P21" si="6">O14/H14^2</f>
         <v>6.0204700869266086E-6</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q21" si="7">O14/I14^2</f>
         <v>8.6536470740241776E-6</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="16">
         <v>2.7818732999999999E-3</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="16">
         <v>2.3203471E-3</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="16">
         <v>1.09454E-5</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="16">
         <v>7.6148999999999997E-6</v>
       </c>
     </row>
@@ -5325,56 +5334,56 @@
       <c r="G15">
         <v>-17.5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="11">
         <f>(D15-C15) +$B$3 +Magnification!$E$8/2</f>
         <v>411.47</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <f>(F15-E15) +$B$3 +Magnification!$E$8/2</f>
         <v>378.97</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="11">
         <f t="shared" si="2"/>
         <v>-1.1142857142857143</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>2.430310836756021E-3</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>2.6387312979919255E-3</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="11">
         <f t="shared" si="3"/>
         <v>197.27592973533729</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="11">
         <f t="shared" si="4"/>
         <v>-6.0496350411914805E-2</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="11">
         <f t="shared" si="6"/>
         <v>6.6046244712013276E-6</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="11">
         <f t="shared" si="7"/>
         <v>7.786007523501136E-6</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="16">
         <v>2.6387313000000002E-3</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="16">
         <v>2.4303108E-3</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="16">
         <v>9.8479999999999996E-6</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="16">
         <v>8.3537999999999995E-6</v>
       </c>
     </row>
@@ -5400,56 +5409,56 @@
       <c r="G16">
         <v>-19</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="11">
         <f>(D16-C16) +$B$3 +Magnification!$E$8/2</f>
         <v>390.97</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <f>(F16-E16) +$B$3 +Magnification!$E$8/2</f>
         <v>391.97</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="11">
         <f t="shared" si="2"/>
         <v>-1.0263157894736843</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>2.5577410031460213E-3</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>2.5512156542592543E-3</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="11">
         <f t="shared" si="3"/>
         <v>195.73468069072982</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="11">
         <f t="shared" si="4"/>
         <v>-5.332859642154697E-2</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="11">
         <f t="shared" si="6"/>
         <v>7.3153921834388804E-6</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="11">
         <f t="shared" si="7"/>
         <v>7.2781135110307306E-6</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16" s="16">
         <v>2.5512157000000001E-3</v>
       </c>
-      <c r="T16" s="25">
+      <c r="T16" s="16">
         <v>2.5577410000000001E-3</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="16">
         <v>9.2056000000000004E-6</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16" s="16">
         <v>9.2528000000000006E-6</v>
       </c>
     </row>
@@ -5475,56 +5484,56 @@
       <c r="G17">
         <v>-21</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="11">
         <f>(D17-C17) +$B$3 +Magnification!$E$8/2</f>
         <v>371.47</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <f>(F17-E17) +$B$3 +Magnification!$E$8/2</f>
         <v>377.47</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="11">
         <f t="shared" si="2"/>
         <v>-0.9285714285714286</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
         <v>2.6920074299405065E-3</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="11">
         <f t="shared" si="1"/>
         <v>2.6492171563303043E-3</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="11">
         <f t="shared" si="3"/>
         <v>187.22298301599594</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="11">
         <f t="shared" si="4"/>
         <v>-4.594985063301462E-2</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="11">
         <f t="shared" si="6"/>
         <v>8.1035812503049185E-6</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="11">
         <f t="shared" si="7"/>
         <v>7.8480109487431465E-6</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="16">
         <v>2.6492171999999998E-3</v>
       </c>
-      <c r="T17" s="25">
+      <c r="T17" s="16">
         <v>2.6920073999999999E-3</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="16">
         <v>9.9264000000000004E-6</v>
       </c>
-      <c r="V17" s="25">
+      <c r="V17" s="16">
         <v>1.0249699999999999E-5</v>
       </c>
     </row>
@@ -5550,56 +5559,56 @@
       <c r="G18">
         <v>-25</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="11">
         <f>(D18-C18) +$B$3 +Magnification!$E$8/2</f>
         <v>351.47</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <f>(F18-E18) +$B$3 +Magnification!$E$8/2</f>
         <v>436.97</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="11">
         <f t="shared" si="2"/>
         <v>-0.78</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>2.8451930463481946E-3</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="11">
         <f t="shared" si="1"/>
         <v>2.2884866237956837E-3</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="11">
         <f t="shared" si="3"/>
         <v>194.792052534118</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="11">
         <f t="shared" si="4"/>
         <v>-3.5870879554312576E-2</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="11">
         <f t="shared" si="6"/>
         <v>9.0520711675716873E-6</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="11">
         <f t="shared" si="7"/>
         <v>5.8562719921062435E-6</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="16">
         <v>2.2884865999999999E-3</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="16">
         <v>2.8451930000000002E-3</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="16">
         <v>7.4072E-6</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="16">
         <v>1.1449399999999999E-5</v>
       </c>
     </row>
@@ -5625,56 +5634,56 @@
       <c r="G19">
         <v>-27.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="11">
         <f>(D19-C19) +$B$3 +Magnification!$E$8/2</f>
         <v>330.97</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <f>(F19-E19) +$B$3 +Magnification!$E$8/2</f>
         <v>477.97</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="11">
         <f t="shared" si="2"/>
         <v>-0.70909090909090911</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>3.0214218811372628E-3</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>2.092181517668473E-3</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="11">
         <f t="shared" si="3"/>
         <v>195.55681620392119</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="11">
         <f t="shared" si="4"/>
         <v>-3.1521315546605533E-2</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="11">
         <f t="shared" si="6"/>
         <v>1.0208154221256143E-5</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="11">
         <f t="shared" si="7"/>
         <v>4.8946676114802146E-6</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="16">
         <v>2.0921815E-3</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="16">
         <v>3.0214219000000001E-3</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="16">
         <v>6.1909000000000003E-6</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="16">
         <v>1.29116E-5</v>
       </c>
     </row>
@@ -5700,56 +5709,56 @@
       <c r="G20">
         <v>-33</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="11">
         <f>(D20-C20) +$B$3 +Magnification!$E$8/2</f>
         <v>309.97000000000003</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <f>(F20-E20) +$B$3 +Magnification!$E$8/2</f>
         <v>636.47</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="11">
         <f t="shared" si="2"/>
         <v>-0.59090909090909094</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>3.2261186566441909E-3</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>1.5711659622605935E-3</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="11">
         <f t="shared" si="3"/>
         <v>208.45125512446643</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="11">
         <f t="shared" si="4"/>
         <v>-2.4888858126160682E-2</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="11">
         <f t="shared" si="6"/>
         <v>1.1638182305890472E-5</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="11">
         <f t="shared" si="7"/>
         <v>2.7603783116326329E-6</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="16">
         <v>1.5711659999999999E-3</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="16">
         <v>3.2261186999999998E-3</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="16">
         <v>3.4914000000000001E-6</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="16">
         <v>1.4720400000000001E-5</v>
       </c>
     </row>
@@ -5775,56 +5784,56 @@
       <c r="G21">
         <v>-14</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="11">
         <f>(D21-C21) +$B$3 +Magnification!$E$8/2</f>
         <v>479.47</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="11">
         <f>(F21-E21) +$B$3 +Magnification!$E$8/2</f>
         <v>337.47</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="11">
         <f t="shared" si="2"/>
         <v>-1.3928571428571428</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
         <v>2.0856362233299267E-3</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="11">
         <f t="shared" si="1"/>
         <v>2.9632263608617062E-3</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="11">
         <f t="shared" si="3"/>
         <v>198.0644121967342</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="11">
         <f t="shared" si="4"/>
         <v>-8.6603291820244677E-2</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="11">
         <f t="shared" si="5"/>
         <v>1.1182128598795491</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="11">
         <f t="shared" si="6"/>
         <v>4.8640900284859102E-6</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="11">
         <f t="shared" si="7"/>
         <v>9.8187033616310687E-6</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="16">
         <v>2.9632263999999999E-3</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21" s="16">
         <v>2.0856362000000002E-3</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="16">
         <v>1.2418999999999999E-5</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="16">
         <v>6.1523000000000004E-6</v>
       </c>
     </row>
@@ -5838,40 +5847,40 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="23" t="s">
+      <c r="H39" s="12"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="20"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="19" t="s">
+      <c r="H40" s="13"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
@@ -5888,36 +5897,36 @@
       <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="15"/>
+      <c r="K41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21" t="s">
+      <c r="M41" s="14"/>
+      <c r="N41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O41" s="21" t="s">
+      <c r="O41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="16" t="s">
+      <c r="P41" t="s">
         <v>57</v>
       </c>
-      <c r="Q41" s="16" t="s">
+      <c r="Q41" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="R41" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5947,24 +5956,24 @@
         <f>F42*SQRT(9/B42)</f>
         <v>1.5923956625995745E-4</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="11">
         <f>F42*SQRT(SUM(D45:D53)/B42)</f>
         <v>6.2980956429664808E-2</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="17">
+      <c r="J42" s="15"/>
+      <c r="K42" s="11">
         <f>8*(SUM(N45:N52)) - SUM(K45:K52)^2</f>
         <v>1.2204937984024253E-5</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="11">
         <f>(1/K42)*(8 * SUM(O45:O52) - SUM(K45:K52)*SUM(L45:L52))</f>
         <v>-0.84849863040062989</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="11">
         <f>(1/K42)*(SUM(N45:N52)*SUM(L45:L52)-SUM(K45:K52)*SUM(O45:O52))</f>
         <v>4.6846376363384864E-3</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="11">
         <f>1/N42</f>
         <v>213.46368227993835</v>
       </c>
@@ -5976,7 +5985,7 @@
         <f>P42*SQRT(8/K42)</f>
         <v>1.5500764794193944</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="11">
         <f>P42*SQRT(SUM(N45:N53)/K42)</f>
         <v>3.8889881148040568E-3</v>
       </c>
@@ -5994,16 +6003,16 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N44" s="17" t="s">
+      <c r="N44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="17" t="s">
+      <c r="O44" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6024,19 +6033,19 @@
         <f>B45*C45</f>
         <v>-585.6110000000001</v>
       </c>
-      <c r="K45" s="17">
-        <f t="shared" ref="K45:K49" si="10">L13</f>
+      <c r="K45" s="11">
+        <f t="shared" ref="K45:K48" si="10">L13</f>
         <v>2.8779462975220878E-3</v>
       </c>
-      <c r="L45" s="17">
-        <f t="shared" ref="L45:L49" si="11">K13</f>
+      <c r="L45" s="11">
+        <f t="shared" ref="L45:L48" si="11">K13</f>
         <v>2.2199036561813216E-3</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="11">
         <f>K45^2</f>
         <v>8.2825748914210937E-6</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="11">
         <f>K45*L45</f>
         <v>6.3887635081627802E-6</v>
       </c>
@@ -6058,27 +6067,27 @@
         <f>B46*C46</f>
         <v>-525.24468750000005</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="11">
         <f>G42/C42^2</f>
         <v>6.6916076612874553</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="11">
         <f t="shared" si="10"/>
         <v>2.7818733134893033E-3</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="11">
         <f t="shared" si="11"/>
         <v>2.3203471239297397E-3</v>
       </c>
-      <c r="N46" s="17">
-        <f t="shared" ref="N46:N49" si="13">K46^2</f>
+      <c r="N46" s="11">
+        <f t="shared" ref="N46:N48" si="13">K46^2</f>
         <v>7.7388191323039559E-6</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="11">
         <f>K46*L46</f>
         <v>6.4549117420918E-6</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R46" s="11">
         <f>R42/N42^2</f>
         <v>177.2085244949364</v>
       </c>
@@ -6100,20 +6109,20 @@
         <f t="shared" ref="E47:E53" si="14">B47*C47</f>
         <v>-458.49514285714292</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="11">
         <f t="shared" si="10"/>
         <v>2.6387312979919255E-3</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="11">
         <f t="shared" si="11"/>
         <v>2.430310836756021E-3</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="11">
         <f t="shared" si="13"/>
         <v>6.9629028630021521E-6</v>
       </c>
-      <c r="O47" s="17">
-        <f t="shared" ref="O47:O49" si="15">K47*L47</f>
+      <c r="O47" s="11">
+        <f t="shared" ref="O47:O48" si="15">K47*L47</f>
         <v>6.4129372687970581E-6</v>
       </c>
     </row>
@@ -6134,19 +6143,19 @@
         <f t="shared" si="14"/>
         <v>-401.25868421052638</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="11">
         <f t="shared" si="10"/>
         <v>2.5512156542592543E-3</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="11">
         <f t="shared" si="11"/>
         <v>2.5577410031460213E-3</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="11">
         <f t="shared" si="13"/>
         <v>6.508701314537475E-6</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="11">
         <f t="shared" si="15"/>
         <v>6.5253488867668982E-6</v>
       </c>
@@ -6168,19 +6177,19 @@
         <f t="shared" si="14"/>
         <v>-344.93642857142862</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="11">
         <f>L18</f>
         <v>2.2884866237956837E-3</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="11">
         <f>K18</f>
         <v>2.8451930463481946E-3</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="11">
         <f>K49^2</f>
         <v>5.2371710272917669E-6</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="11">
         <f>K49*L49</f>
         <v>6.5111862286843357E-6</v>
       </c>
@@ -6202,19 +6211,19 @@
         <f t="shared" si="14"/>
         <v>-274.14660000000003</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="11">
         <f>L19</f>
         <v>2.092181517668473E-3</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="11">
         <f>K19</f>
         <v>3.0214218811372628E-3</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="11">
         <f>K50^2</f>
         <v>4.3772235028735554E-6</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="11">
         <f>K50*L50</f>
         <v>6.3213630167944913E-6</v>
       </c>
@@ -6236,19 +6245,19 @@
         <f t="shared" si="14"/>
         <v>-234.68781818181822</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="11">
         <f>L20</f>
         <v>1.5711659622605935E-3</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="11">
         <f>K20</f>
         <v>3.2261186566441909E-3</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="11">
         <f>K51^2</f>
         <v>2.4685624809662569E-6</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="11">
         <f>K51*L51</f>
         <v>5.0687678235332237E-6</v>
       </c>
@@ -6270,19 +6279,19 @@
         <f t="shared" si="14"/>
         <v>-183.16409090909093</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="11">
         <f>L21</f>
         <v>2.9632263608617062E-3</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="11">
         <f>K21</f>
         <v>2.0856362233299267E-3</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="11">
         <f>K52^2</f>
         <v>8.7807104657057104E-6</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="11">
         <f>K52*L52</f>
         <v>6.1802122361392917E-6</v>
       </c>
@@ -6324,7 +6333,7 @@
         <f>$L$42*K45+$N$42</f>
         <v>2.2427041445244314E-3</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="17">
         <f>(L45-L55)^2</f>
         <v>5.1986226868428484E-10</v>
       </c>
@@ -6342,7 +6351,7 @@
         <f t="shared" ref="L56:L63" si="16">$L$42*K46+$N$42</f>
         <v>2.3242219398947506E-3</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="17">
         <f t="shared" ref="M56:M63" si="17">(L46-L56)^2</f>
         <v>1.5014198762703362E-11</v>
       </c>
@@ -6360,7 +6369,7 @@
         <f t="shared" si="16"/>
         <v>2.4456777439970613E-3</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="17">
         <f t="shared" si="17"/>
         <v>2.3614183815473588E-10</v>
       </c>
@@ -6378,7 +6387,7 @@
         <f t="shared" si="16"/>
         <v>2.5199346478428624E-3</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="17">
         <f t="shared" si="17"/>
         <v>1.4293205013086907E-9</v>
       </c>
@@ -6396,7 +6405,7 @@
         <f t="shared" si="16"/>
         <v>2.7428598703576872E-3</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="17">
         <f t="shared" si="17"/>
         <v>1.047207890830415E-8</v>
       </c>
@@ -6414,7 +6423,7 @@
         <f t="shared" si="16"/>
         <v>2.9094244840472761E-3</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="17">
         <f t="shared" si="17"/>
         <v>1.2543416954932167E-8</v>
       </c>
@@ -6432,7 +6441,7 @@
         <f t="shared" si="16"/>
         <v>3.351505469228285E-3</v>
       </c>
-      <c r="M61" s="26">
+      <c r="M61" s="17">
         <f t="shared" si="17"/>
         <v>1.5721852769998738E-8</v>
       </c>
@@ -6450,7 +6459,7 @@
         <f t="shared" si="16"/>
         <v>2.170344127580286E-3</v>
       </c>
-      <c r="M62" s="26">
+      <c r="M62" s="17">
         <f t="shared" si="17"/>
         <v>7.1754290424880437E-9</v>
       </c>
@@ -6468,7 +6477,7 @@
         <f t="shared" si="16"/>
         <v>4.6846376363384864E-3</v>
       </c>
-      <c r="M63" s="26">
+      <c r="M63" s="17">
         <f t="shared" si="17"/>
         <v>2.1945829783799039E-5</v>
       </c>
@@ -6485,6 +6494,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="K40:O40"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A5:A8"/>
@@ -6493,11 +6507,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="K40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6509,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0461AD-CCF8-490F-BEA4-C59996F02263}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="118" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -6521,25 +6530,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="11"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5">
         <v>1.51502</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -6547,13 +6556,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -6567,41 +6576,41 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
